--- a/sample-files/tailored-templates/specimen-template.xlsx
+++ b/sample-files/tailored-templates/specimen-template.xlsx
@@ -94,7 +94,7 @@
       <family val="0"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -105,6 +105,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF99"/>
         <bgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF9D85BE"/>
+        <bgColor rgb="FF808080"/>
       </patternFill>
     </fill>
     <fill>
@@ -155,7 +161,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -164,7 +170,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -230,7 +240,7 @@
       <rgbColor rgb="FFFF9900"/>
       <rgbColor rgb="FFFF6600"/>
       <rgbColor rgb="FF666699"/>
-      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF9D85BE"/>
       <rgbColor rgb="FF003366"/>
       <rgbColor rgb="FF339966"/>
       <rgbColor rgb="FF003300"/>
@@ -251,8 +261,8 @@
   </sheetPr>
   <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A75" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F95" activeCellId="0" sqref="F95"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G7" activeCellId="0" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -287,10 +297,10 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
     </row>
@@ -301,8 +311,8 @@
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
@@ -314,10 +324,10 @@
       <c r="C3" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="4" t="s">
         <v>11</v>
       </c>
       <c r="F3" s="0" t="s">
